--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st04.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st04.xlsx
@@ -5904,19 +5904,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="히비스커스"]     게다가 라이타니엔 분회의 회장님도 말씀하셨잖아.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="히비스커스"]     "여러분이 이 여자를 발견한 뒤 제압해서 다행입니다. 라이타니엔 경찰이나 바운티 헌터에게 잡혔다면, 희망이 없었을 테니까요."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="히비스커스"]     "이 정도로 감염이 된 감염자라면, 최근 개정된 라이타니엔 감염자 정책에 따라 '인도적인' 처리를 당했겠죠."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="히비스커스"]     "가능하다면 라이타니엔에서 데려가 주시기 바랍니다……" 라고 했었는걸.
+    <t xml:space="preserve">[name="히비스커스"]     게다가 라이타니아 분회의 회장님도 말씀하셨잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="히비스커스"]     "여러분이 이 여자를 발견한 뒤 제압해서 다행입니다. 라이타니아 경찰이나 바운티 헌터에게 잡혔다면, 희망이 없었을 테니까요."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="히비스커스"]     "이 정도로 감염이 된 감염자라면, 최근 개정된 라이타니아 감염자 정책에 따라 '인도적인' 처리를 당했겠죠."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="히비스커스"]     "가능하다면 라이타니아에서 데려가 주시기 바랍니다……" 라고 했었는걸.
 </t>
   </si>
   <si>
@@ -5928,7 +5928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]     라이타니엔 안에서만 그 정도였는데, 다른 곳에선 어땠겠어? 아무도 모르는 거지.
+    <t xml:space="preserve">[name="라바"]     라이타니아 안에서만 그 정도였는데, 다른 곳에선 어땠겠어? 아무도 모르는 거지.
 </t>
   </si>
   <si>
@@ -6852,11 +6852,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="지원 오퍼레이터"]     라이타니엔 분회의 자료에 따르면, 볼리바르에서 출발해 극동 쪽 세 개 국가의 국경까지 갔다가 돌아온 모양입니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="지원 오퍼레이터"]     북쪽으로 빙 돌아서 돌아가던 중에, 라이타니엔에서 구조된 거죠.
+    <t xml:space="preserve">[name="지원 오퍼레이터"]     라이타니아 분회의 자료에 따르면, 볼리바르에서 출발해 극동 쪽 세 개 국가의 국경까지 갔다가 돌아온 모양입니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="지원 오퍼레이터"]     북쪽으로 빙 돌아서 돌아가던 중에, 라이타니아에서 구조된 거죠.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st04.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st04.xlsx
@@ -3848,7 +3848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hibiscus"]     Say "aahh."
+    <t xml:space="preserve">[name="Hibiscus"]     Say 'aahh.'
 </t>
   </si>
   <si>
@@ -3984,15 +3984,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hibiscus"]     "It's a good thing you subdued her. There would have been no hope for her if the police or bounty hunters found her first."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hibiscus"]     "An Infected person as far gone as her, with the way the laws in Leithanien have changed, almost certainly would have been euthanized."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hibiscus"]     "If it's at all possible, please at least get her out of Leithanien territory. Thank you."
+    <t xml:space="preserve">[name="Hibiscus"]     'It's a good thing you subdued her. There would have been no hope for her if the police or bounty hunters found her first.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]     'An Infected person as far gone as her, with the way the laws in Leithanien have changed, almost certainly would have been euthanized.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hibiscus"]     'If it's at all possible, please at least get her out of Leithanien territory. Thank you.'
 </t>
   </si>
   <si>
@@ -4644,7 +4644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]     "Ceobe."
+    <t xml:space="preserve">[name="Vulcan"]     'Ceobe.'
 </t>
   </si>
   <si>
@@ -4704,7 +4704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]     She's "Little Lava," or something.
+    <t xml:space="preserve">[name="Ceobe"]     She's 'Little Lava,' or something.
 </t>
   </si>
   <si>
@@ -4764,7 +4764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]     (She mentioned "Little Lava" before, didn't she?)
+    <t xml:space="preserve">[name="Vulcan"]     (She mentioned 'Little Lava' before, didn't she?)
 </t>
   </si>
   <si>
@@ -4776,7 +4776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]     We'll call you "Kay."
+    <t xml:space="preserve">[name="Vulcan"]     We'll call you 'Kay.'
 </t>
   </si>
   <si>
@@ -5348,7 +5348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hibiscus"]     In my experience, your "bad feelings" usually signal good things.
+    <t xml:space="preserve">[name="Hibiscus"]     In my experience, your 'bad feelings' usually signal good things.
 </t>
   </si>
   <si>
@@ -5680,7 +5680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="HR Director"]     Don't thank me either. Next time you're up for a drink, come by while I'm on. I've got a new mix, I'm calling it "Kazimierz Fury." Give it a try sometime?
+    <t xml:space="preserve">[name="HR Director"]     Don't thank me either. Next time you're up for a drink, come by while I'm on. I've got a new mix, I'm calling it 'Kazimierz Fury.' Give it a try sometime?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st04.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st04.xlsx
@@ -5904,19 +5904,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="히비스커스"]     게다가 라이타니아 분회의 회장님도 말씀하셨잖아.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="히비스커스"]     "여러분이 이 여자를 발견한 뒤 제압해서 다행입니다. 라이타니아 경찰이나 바운티 헌터에게 잡혔다면, 희망이 없었을 테니까요."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="히비스커스"]     "이 정도로 감염이 된 감염자라면, 최근 개정된 라이타니아 감염자 정책에 따라 '인도적인' 처리를 당했겠죠."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="히비스커스"]     "가능하다면 라이타니아에서 데려가 주시기 바랍니다……" 라고 했었는걸.
+    <t xml:space="preserve">[name="히비스커스"]     게다가 라이타니엔 분회의 회장님도 말씀하셨잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="히비스커스"]     “여러분이 이 여자를 발견한 뒤 제압해서 다행입니다. 라이타니엔 경찰이나 바운티 헌터에게 잡혔다면, 희망이 없었을 테니까요.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="히비스커스"]     “이 정도로 감염이 된 감염자라면, 최근 개정된 라이타니엔 감염자 정책에 따라 '인도적인' 처리를 당했겠죠.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="히비스커스"]     “가능하다면 라이타니엔에서 데려가 주시기 바랍니다……”라고 했었는걸.
 </t>
   </si>
   <si>
@@ -5928,7 +5928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]     라이타니아 안에서만 그 정도였는데, 다른 곳에선 어땠겠어? 아무도 모르는 거지.
+    <t xml:space="preserve">[name="라바"]     라이타니엔 안에서만 그 정도였는데, 다른 곳에선 어땠겠어? 아무도 모르는 거지.
 </t>
   </si>
   <si>
@@ -6852,11 +6852,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="지원 오퍼레이터"]     라이타니아 분회의 자료에 따르면, 볼리바르에서 출발해 극동 쪽 세 개 국가의 국경까지 갔다가 돌아온 모양입니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="지원 오퍼레이터"]     북쪽으로 빙 돌아서 돌아가던 중에, 라이타니아에서 구조된 거죠.
+    <t xml:space="preserve">[name="지원 오퍼레이터"]     라이타니엔 분회의 자료에 따르면, 볼리바르에서 출발해 극동 쪽 세 개 국가의 국경까지 갔다가 돌아온 모양입니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="지원 오퍼레이터"]     북쪽으로 빙 돌아서 돌아가던 중에, 라이타니엔에서 구조된 거죠.
 </t>
   </si>
   <si>
